--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5175A7A9-29AD-4C97-B56F-BB7558CAAA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FB23E-E2EB-4E6C-8DAC-D9F2C3012BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>title</t>
   </si>
@@ -350,6 +350,27 @@
   </si>
   <si>
     <t xml:space="preserve">Perioada fiscală </t>
+  </si>
+  <si>
+    <t>Activitatea în trimestrul de raportare</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>chb</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/TRIM_1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/TRIM_2</t>
+  </si>
+  <si>
+    <t>TRIM_1</t>
+  </si>
+  <si>
+    <t>TRIM_2</t>
   </si>
 </sst>
 </file>
@@ -742,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,6 +2079,133 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>112</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>112</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FB23E-E2EB-4E6C-8DAC-D9F2C3012BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B812C-769E-4A93-A83A-E6AC8433C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -371,13 +371,766 @@
   </si>
   <si>
     <t>TRIM_2</t>
+  </si>
+  <si>
+    <t>Rînd. 010 col.1</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>table number</t>
+  </si>
+  <si>
+    <t>CAP1_R010_C1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R010_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R011_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 011 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R011_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R012_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 012 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R012_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R013_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 013 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R013_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R014_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 014 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R014_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R015_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 015 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R015_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R016_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 016 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R016_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R017_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 017 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R017_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R018_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 018 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R018_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R019_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 019 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R019_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R020_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 020 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R020_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R021_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 021 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R021_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R022_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 022 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R022_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R023_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 023 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R023_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R024_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 024 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R024_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R025_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 025 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R025_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R026_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 026 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R026_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R027_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 027 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R027_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R028_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 028 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R028_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R029_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 029 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R029_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R030_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 030 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R030_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R040_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 040 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R040_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R050_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 050 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R050_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R051_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 051 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R051_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R052_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 052 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R052_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R053_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 053 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R053_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R054_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 054 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R054_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R055_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 055 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R055_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R056_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 056 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R056_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R057_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 057 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R057_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R058_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 058 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R058_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R059_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 059 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R059_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R060_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 060 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R060_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R061_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 061 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R061_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R062_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 062 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R062_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R063_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 063 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R063_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R069_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 069 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R069_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R070_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 070 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R070_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R071_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 071 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R071_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R072_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 072 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R072_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R073_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 073 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R073_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R074_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 074 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R074_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R075_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 075 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R075_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R076_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 076 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R076_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R077_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 077 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R077_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R078_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 078 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R078_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R079_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 079 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R079_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R080_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 080 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R080_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R081_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 081 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R081_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R082_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 082 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R082_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R089_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 089 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R089_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R090_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 090 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R090_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R091_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 091 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R091_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R092_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 092 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R092_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R100_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 100 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R100_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R110_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 110 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R110_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R120_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 120 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R120_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R130_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 130 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R130_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R131_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 131 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R131_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R140_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 140 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R140_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R141_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 141 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R141_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R142_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 142 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R142_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R150_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 150 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R150_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R160_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 160 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R160_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R170_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 170 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R170_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R171_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 171 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R171_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R172_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 172 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R172_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R173_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 173 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R173_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R174_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 174 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R174_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R180_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 180 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R180_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R190_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 190 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R190_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R200_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 200 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R200_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R210_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 210 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R210_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R220_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 220 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R220_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R221_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 221 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R221_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R222_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 222 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R222_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R223_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 223 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R223_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R224_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 224 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R224_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R225_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 225 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R225_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R230_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 230 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R230_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R300_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 300 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R300_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R310_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 310 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R310_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R320_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 320 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R320_C1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -411,6 +1164,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -446,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,6 +1217,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2206,6 +2968,5152 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>119</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>100</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>119</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>100</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>119</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>119</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>100</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>119</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>119</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>100</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>119</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>100</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>119</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>100</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>119</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>100</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>119</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>100</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>119</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>100</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>119</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>100</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>119</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>100</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>14</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>119</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>100</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>14</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>119</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>100</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>119</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>100</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>119</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>100</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>119</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>100</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>119</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>100</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>14</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>119</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>100</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>14</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>119</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>100</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>100</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>14</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>119</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>100</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>119</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>100</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>119</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>100</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>119</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>100</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>119</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>100</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>14</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>119</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>100</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>119</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>100</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>119</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>100</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>14</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>119</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>100</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>14</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>119</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>100</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>14</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>119</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>100</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>14</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>119</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>100</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>14</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>119</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>100</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>14</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>119</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>100</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>14</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>119</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>100</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>14</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>119</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>100</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>14</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>119</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>100</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>14</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>119</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>100</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>14</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>119</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>100</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>14</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>119</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>100</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>119</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>100</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>14</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>119</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>100</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>14</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>119</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>100</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>14</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
+        <v>119</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>100</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>14</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="V69" t="s">
+        <v>119</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>100</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
+        <v>265</v>
+      </c>
+      <c r="F70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>14</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>119</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>100</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>14</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>119</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>100</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>14</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>119</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>100</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>14</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>119</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>100</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>14</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>119</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>100</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>14</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>119</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>100</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>14</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>119</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>100</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>14</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="V77" t="s">
+        <v>119</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>100</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>14</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>119</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>100</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>14</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>119</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>100</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" t="s">
+        <v>295</v>
+      </c>
+      <c r="F80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>14</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="V80" t="s">
+        <v>119</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>100</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>14</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="V81" t="s">
+        <v>119</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>100</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>14</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>119</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>100</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+      <c r="F83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>14</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="V83" t="s">
+        <v>119</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>100</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="F84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>14</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="V84" t="s">
+        <v>119</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>100</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>14</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>119</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>100</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" t="s">
+        <v>312</v>
+      </c>
+      <c r="C86" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>14</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>119</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>100</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="F87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>14</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="V87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>100</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>14</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="V88" t="s">
+        <v>119</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>100</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>14</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="V89" t="s">
+        <v>119</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>100</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90" t="s">
+        <v>325</v>
+      </c>
+      <c r="F90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>14</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="V90" t="s">
+        <v>119</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>100</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>14</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="V91" t="s">
+        <v>119</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>100</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>331</v>
+      </c>
+      <c r="F92" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>14</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="V92" t="s">
+        <v>119</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>100</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>14</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="V93" t="s">
+        <v>119</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>100</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" t="s">
+        <v>336</v>
+      </c>
+      <c r="C94" t="s">
+        <v>337</v>
+      </c>
+      <c r="F94" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>14</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="V94" t="s">
+        <v>119</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>100</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" t="s">
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>14</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="V95" t="s">
+        <v>119</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>100</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>342</v>
+      </c>
+      <c r="C96" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" t="s">
+        <v>118</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>14</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="V96" t="s">
+        <v>119</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>100</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" t="s">
+        <v>345</v>
+      </c>
+      <c r="C97" t="s">
+        <v>346</v>
+      </c>
+      <c r="F97" t="s">
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>14</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="V97" t="s">
+        <v>119</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>100</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>349</v>
+      </c>
+      <c r="F98" t="s">
+        <v>118</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>14</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="V98" t="s">
+        <v>119</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>100</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B99" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>14</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="V99" t="s">
+        <v>119</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>100</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" t="s">
+        <v>355</v>
+      </c>
+      <c r="F100" t="s">
+        <v>118</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>14</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>119</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>100</v>
+      </c>
+      <c r="Z100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" t="s">
+        <v>358</v>
+      </c>
+      <c r="F101" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>14</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="V101" t="s">
+        <v>119</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>100</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" t="s">
+        <v>361</v>
+      </c>
+      <c r="F102" t="s">
+        <v>118</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>14</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>119</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>100</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" t="s">
+        <v>364</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>14</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="V103" t="s">
+        <v>119</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>100</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" t="s">
+        <v>366</v>
+      </c>
+      <c r="C104" t="s">
+        <v>367</v>
+      </c>
+      <c r="F104" t="s">
+        <v>118</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>14</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>119</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>100</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B812C-769E-4A93-A83A-E6AC8433C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E70C93-12CA-4667-8069-CF1E54CA625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>@cuatm</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('cuatm'); ?&gt;</t>
-  </si>
-  <si>
     <t>Codul fiscal</t>
   </si>
   <si>
@@ -157,18 +154,12 @@
     <t>@cuiio_cfp_code</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('forma_de_proprietate'); ?&gt;</t>
-  </si>
-  <si>
     <t>Forma organizatorico-juridică</t>
   </si>
   <si>
     <t>@cuiio_cfoj_code</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('forma_organizatorico_juridica'); ?&gt;</t>
-  </si>
-  <si>
     <t>Activitatea principală</t>
   </si>
   <si>
@@ -1124,6 +1115,15 @@
   </si>
   <si>
     <t>dec/DataSet/Data/CAP1_R320_C1</t>
+  </si>
+  <si>
+    <t>&lt;?php return classifiers_get_list('cfp'); ?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ',name) FROM taxonomy_term_data t</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1539,15 +1539,15 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="32.140625" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" customWidth="1"/>
+    <col min="20" max="20" width="60.85546875" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
     <col min="22" max="22" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1784,10 +1784,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1891,7 +1891,7 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1986,19 +1986,19 @@
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>365</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>31</v>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="T8" t="s">
+        <v>366</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>31</v>
@@ -2122,19 +2122,19 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
         <v>31</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s">
         <v>31</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="12" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2453,19 +2453,19 @@
     </row>
     <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W14" s="9">
         <v>0</v>
@@ -2515,18 +2515,18 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>35</v>
@@ -2586,18 +2586,18 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
@@ -2657,19 +2657,19 @@
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>31</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2908,19 +2908,19 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2970,16 +2970,16 @@
     </row>
     <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3094,16 +3094,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3156,16 +3156,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3218,16 +3218,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3280,16 +3280,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3342,16 +3342,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3528,16 +3528,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3590,16 +3590,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3652,16 +3652,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3714,16 +3714,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3838,16 +3838,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3900,16 +3900,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3962,16 +3962,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4024,16 +4024,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4210,16 +4210,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4272,16 +4272,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4334,16 +4334,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4396,16 +4396,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4458,16 +4458,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4520,16 +4520,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4644,16 +4644,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -4768,16 +4768,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4830,16 +4830,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4892,16 +4892,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -5016,16 +5016,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5078,16 +5078,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -5202,16 +5202,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5326,16 +5326,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>32</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5388,16 +5388,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5450,16 +5450,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -5574,16 +5574,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -5636,16 +5636,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -5698,16 +5698,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
         <v>32</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -5884,16 +5884,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -5946,16 +5946,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -6008,16 +6008,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -6070,16 +6070,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -6194,16 +6194,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6256,16 +6256,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6318,16 +6318,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -6380,16 +6380,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -6442,16 +6442,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -6504,16 +6504,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -6566,16 +6566,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -6628,16 +6628,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -6690,16 +6690,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -6752,16 +6752,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -6814,16 +6814,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -6876,16 +6876,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -6938,16 +6938,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7000,16 +7000,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -7062,16 +7062,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -7124,16 +7124,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7186,16 +7186,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -7248,16 +7248,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -7310,16 +7310,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W92">
         <v>0</v>
@@ -7372,16 +7372,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C93" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W93">
         <v>0</v>
@@ -7434,16 +7434,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -7496,16 +7496,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -7558,16 +7558,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -7620,16 +7620,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7682,16 +7682,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -7744,16 +7744,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -7806,16 +7806,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C100" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -7868,16 +7868,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -7930,16 +7930,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C102" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -7992,16 +7992,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8054,16 +8054,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W104">
         <v>0</v>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E70C93-12CA-4667-8069-CF1E54CA625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB1065-6D63-4FC2-9269-C4D3086E032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="367">
   <si>
     <t>title</t>
   </si>
@@ -1121,9 +1121,6 @@
   </si>
   <si>
     <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
-  </si>
-  <si>
-    <t>SELECT code, CONCAT(code, ' - ',name) FROM taxonomy_term_data t</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1539,8 +1536,9 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="19" max="19" width="26.140625" customWidth="1"/>
-    <col min="20" max="20" width="60.85546875" customWidth="1"/>
+    <col min="20" max="20" width="82.42578125" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
     <col min="22" max="22" width="56" customWidth="1"/>
   </cols>
@@ -1891,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>367</v>
+        <v>48</v>
       </c>
       <c r="W5">
         <v>0</v>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB1065-6D63-4FC2-9269-C4D3086E032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950D7151-2DB2-4126-9394-11BEE5E5DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','5','6','7','8');</t>
   </si>
 </sst>
 </file>
@@ -1524,21 +1527,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="26.140625" customWidth="1"/>
-    <col min="20" max="20" width="82.42578125" customWidth="1"/>
+    <col min="20" max="20" width="94.5703125" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
     <col min="22" max="22" width="56" customWidth="1"/>
   </cols>
@@ -1836,74 +1841,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="T5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>4</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
         <v>0</v>
       </c>
     </row>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950D7151-2DB2-4126-9394-11BEE5E5DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA6ED1-EA7D-4C6B-9224-7C8322795F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -1123,7 +1123,7 @@
     <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
   </si>
   <si>
-    <t>SELECT code, CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','5','6','7','8');</t>
+    <t>SELECT code, CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','5','6','7','8','4');</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1896,6 +1896,9 @@
       <c r="T5" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="V5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W5" s="1">
         <v>0</v>
       </c>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA6ED1-EA7D-4C6B-9224-7C8322795F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236D47D-E6FB-4983-9362-9FBC0A7BA6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
     <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
   </si>
   <si>
-    <t>SELECT code, CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','5','6','7','8','4');</t>
+    <t>SELECT CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','6','7','8','4');</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236D47D-E6FB-4983-9362-9FBC0A7BA6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920898D3-D5C2-4313-AB36-2DE1B878AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="367">
   <si>
     <t>title</t>
   </si>
@@ -259,15 +259,9 @@
     <t>dec/DataSet/Header/FISCCOD_FISC</t>
   </si>
   <si>
-    <t>%02d</t>
-  </si>
-  <si>
     <t>@ifs</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('ifs'); ?&gt;</t>
-  </si>
-  <si>
     <t>Adresa</t>
   </si>
   <si>
@@ -1117,13 +1111,16 @@
     <t>dec/DataSet/Data/CAP1_R320_C1</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('cfp'); ?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?php return classifiers_get_list('cfpj'); ?&gt;</t>
-  </si>
-  <si>
-    <t>SELECT CONCAT(code, ' - ', name) FROM taxonomy_term_data t JOIN classifier_66 c ON c.tid = t.tid WHERE c.PRGS IN ('3','6','7','8','4');</t>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_38 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_37 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_2 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT ddf_code, CONCAT(ddf_code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_21 c ON c.tid = t.tid order by ddf_code;</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1540,7 @@
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="26.140625" customWidth="1"/>
-    <col min="20" max="20" width="94.5703125" customWidth="1"/>
+    <col min="20" max="20" width="110.85546875" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
     <col min="22" max="22" width="56" customWidth="1"/>
   </cols>
@@ -1713,7 +1710,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
@@ -1752,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1786,12 +1783,6 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1805,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1820,10 +1811,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>366</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1832,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1894,7 +1888,7 @@
         <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>31</v>
@@ -2037,7 +2031,7 @@
         <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>31</v>
@@ -2105,7 +2099,7 @@
         <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>31</v>
@@ -2326,13 +2320,13 @@
     </row>
     <row r="12" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2372,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -2459,13 +2453,13 @@
     </row>
     <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>53</v>
@@ -2501,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W14" s="9">
         <v>0</v>
@@ -2521,13 +2515,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2592,18 +2586,18 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
@@ -2663,16 +2657,16 @@
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>54</v>
@@ -2705,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>31</v>
@@ -2728,13 +2722,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -2770,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2796,7 +2790,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -2849,19 +2843,19 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2894,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2914,19 +2908,19 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2956,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2976,16 +2970,16 @@
     </row>
     <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3018,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3038,16 +3032,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -3080,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3100,16 +3094,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -3142,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3162,16 +3156,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -3204,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3224,16 +3218,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3266,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3286,16 +3280,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
         <v>131</v>
       </c>
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3328,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3348,16 +3342,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -3390,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3410,16 +3404,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="B29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3452,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3472,16 +3466,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
         <v>140</v>
       </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>142</v>
-      </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3514,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3534,16 +3528,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
         <v>143</v>
       </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3576,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3596,16 +3590,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
         <v>146</v>
       </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3638,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3658,16 +3652,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
         <v>149</v>
       </c>
-      <c r="B33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>151</v>
-      </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3700,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3720,16 +3714,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3762,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3782,16 +3776,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
         <v>155</v>
       </c>
-      <c r="B35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" t="s">
-        <v>157</v>
-      </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3824,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3844,16 +3838,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
         <v>158</v>
       </c>
-      <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
-      </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3886,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3906,16 +3900,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3948,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3968,16 +3962,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
         <v>164</v>
       </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4010,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4030,16 +4024,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
         <v>167</v>
       </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -4072,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -4092,16 +4086,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>172</v>
-      </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4134,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4154,16 +4148,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
         <v>173</v>
       </c>
-      <c r="B41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -4196,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4216,16 +4210,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="B42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" t="s">
-        <v>178</v>
-      </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4258,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4278,16 +4272,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
         <v>179</v>
       </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" t="s">
-        <v>181</v>
-      </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4320,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4340,16 +4334,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
         <v>182</v>
       </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>184</v>
-      </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4382,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4402,16 +4396,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
         <v>185</v>
       </c>
-      <c r="B45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" t="s">
-        <v>187</v>
-      </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4444,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4464,16 +4458,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s">
-        <v>190</v>
-      </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4506,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4526,16 +4520,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
         <v>191</v>
       </c>
-      <c r="B47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" t="s">
-        <v>193</v>
-      </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4568,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4588,16 +4582,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" t="s">
-        <v>196</v>
-      </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4630,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4650,16 +4644,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
         <v>197</v>
       </c>
-      <c r="B49" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" t="s">
-        <v>199</v>
-      </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -4692,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4712,16 +4706,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
         <v>200</v>
       </c>
-      <c r="B50" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" t="s">
-        <v>202</v>
-      </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4754,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -4774,16 +4768,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
         <v>203</v>
       </c>
-      <c r="B51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" t="s">
-        <v>205</v>
-      </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4816,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4836,16 +4830,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s">
         <v>206</v>
       </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" t="s">
-        <v>208</v>
-      </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -4878,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4898,16 +4892,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
         <v>209</v>
       </c>
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" t="s">
-        <v>211</v>
-      </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -4940,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -4960,16 +4954,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
         <v>212</v>
       </c>
-      <c r="B54" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" t="s">
-        <v>214</v>
-      </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5002,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -5022,16 +5016,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
         <v>215</v>
       </c>
-      <c r="B55" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" t="s">
-        <v>217</v>
-      </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5064,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5084,16 +5078,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" t="s">
         <v>218</v>
       </c>
-      <c r="B56" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" t="s">
-        <v>220</v>
-      </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5126,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5146,16 +5140,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
         <v>221</v>
       </c>
-      <c r="B57" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" t="s">
-        <v>223</v>
-      </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5188,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -5208,16 +5202,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s">
-        <v>226</v>
-      </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5250,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5270,16 +5264,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="B59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
-      </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5312,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5332,16 +5326,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s">
         <v>230</v>
       </c>
-      <c r="B60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" t="s">
-        <v>232</v>
-      </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
         <v>32</v>
@@ -5374,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5394,16 +5388,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
         <v>233</v>
       </c>
-      <c r="B61" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" t="s">
-        <v>235</v>
-      </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5436,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5456,16 +5450,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
         <v>236</v>
       </c>
-      <c r="B62" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -5498,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -5518,16 +5512,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
         <v>239</v>
       </c>
-      <c r="B63" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" t="s">
-        <v>241</v>
-      </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -5560,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -5580,16 +5574,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" t="s">
         <v>242</v>
       </c>
-      <c r="B64" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" t="s">
-        <v>244</v>
-      </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -5622,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -5642,16 +5636,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
         <v>245</v>
       </c>
-      <c r="B65" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" t="s">
-        <v>247</v>
-      </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -5684,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -5704,16 +5698,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
         <v>248</v>
       </c>
-      <c r="B66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" t="s">
-        <v>250</v>
-      </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
         <v>32</v>
@@ -5746,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -5766,16 +5760,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
         <v>251</v>
       </c>
-      <c r="B67" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" t="s">
-        <v>253</v>
-      </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -5808,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -5828,16 +5822,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" t="s">
-        <v>256</v>
-      </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -5870,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -5890,16 +5884,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" t="s">
         <v>257</v>
       </c>
-      <c r="B69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" t="s">
-        <v>259</v>
-      </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -5932,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -5952,16 +5946,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" t="s">
         <v>260</v>
       </c>
-      <c r="B70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" t="s">
-        <v>262</v>
-      </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -5994,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -6014,16 +6008,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
         <v>263</v>
       </c>
-      <c r="B71" t="s">
-        <v>264</v>
-      </c>
-      <c r="C71" t="s">
-        <v>265</v>
-      </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -6056,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -6076,16 +6070,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" t="s">
         <v>266</v>
       </c>
-      <c r="B72" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" t="s">
-        <v>268</v>
-      </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6118,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -6138,16 +6132,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" t="s">
         <v>269</v>
       </c>
-      <c r="B73" t="s">
-        <v>270</v>
-      </c>
-      <c r="C73" t="s">
-        <v>271</v>
-      </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -6180,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -6200,16 +6194,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" t="s">
         <v>272</v>
       </c>
-      <c r="B74" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" t="s">
-        <v>274</v>
-      </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -6242,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6262,16 +6256,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" t="s">
         <v>275</v>
       </c>
-      <c r="B75" t="s">
-        <v>276</v>
-      </c>
-      <c r="C75" t="s">
-        <v>277</v>
-      </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -6304,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6324,16 +6318,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" t="s">
         <v>278</v>
       </c>
-      <c r="B76" t="s">
-        <v>279</v>
-      </c>
-      <c r="C76" t="s">
-        <v>280</v>
-      </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -6366,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -6386,16 +6380,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" t="s">
         <v>281</v>
       </c>
-      <c r="B77" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -6428,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -6448,16 +6442,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" t="s">
         <v>284</v>
       </c>
-      <c r="B78" t="s">
-        <v>285</v>
-      </c>
-      <c r="C78" t="s">
-        <v>286</v>
-      </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -6490,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -6510,16 +6504,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
         <v>287</v>
       </c>
-      <c r="B79" t="s">
-        <v>288</v>
-      </c>
-      <c r="C79" t="s">
-        <v>289</v>
-      </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -6552,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -6572,16 +6566,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
         <v>290</v>
       </c>
-      <c r="B80" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80" t="s">
-        <v>292</v>
-      </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -6614,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -6634,16 +6628,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" t="s">
         <v>293</v>
       </c>
-      <c r="B81" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" t="s">
-        <v>295</v>
-      </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -6676,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -6696,16 +6690,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" t="s">
         <v>296</v>
       </c>
-      <c r="B82" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" t="s">
-        <v>298</v>
-      </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -6738,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -6758,16 +6752,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" t="s">
         <v>299</v>
       </c>
-      <c r="B83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" t="s">
-        <v>301</v>
-      </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -6800,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -6820,16 +6814,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" t="s">
         <v>302</v>
       </c>
-      <c r="B84" t="s">
-        <v>303</v>
-      </c>
-      <c r="C84" t="s">
-        <v>304</v>
-      </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -6862,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -6882,16 +6876,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" t="s">
         <v>305</v>
       </c>
-      <c r="B85" t="s">
-        <v>306</v>
-      </c>
-      <c r="C85" t="s">
-        <v>307</v>
-      </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -6924,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -6944,16 +6938,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>306</v>
+      </c>
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" t="s">
         <v>308</v>
       </c>
-      <c r="B86" t="s">
-        <v>309</v>
-      </c>
-      <c r="C86" t="s">
-        <v>310</v>
-      </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -6986,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7006,16 +7000,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" t="s">
         <v>311</v>
       </c>
-      <c r="B87" t="s">
-        <v>312</v>
-      </c>
-      <c r="C87" t="s">
-        <v>313</v>
-      </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -7048,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -7068,16 +7062,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" t="s">
         <v>314</v>
       </c>
-      <c r="B88" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" t="s">
-        <v>316</v>
-      </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -7110,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -7130,16 +7124,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" t="s">
         <v>317</v>
       </c>
-      <c r="B89" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" t="s">
-        <v>319</v>
-      </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -7172,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7192,16 +7186,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
         <v>320</v>
       </c>
-      <c r="B90" t="s">
-        <v>321</v>
-      </c>
-      <c r="C90" t="s">
-        <v>322</v>
-      </c>
       <c r="F90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -7234,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -7254,16 +7248,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" t="s">
         <v>323</v>
       </c>
-      <c r="B91" t="s">
-        <v>324</v>
-      </c>
-      <c r="C91" t="s">
-        <v>325</v>
-      </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -7296,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -7316,16 +7310,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" t="s">
         <v>326</v>
       </c>
-      <c r="B92" t="s">
-        <v>327</v>
-      </c>
-      <c r="C92" t="s">
-        <v>328</v>
-      </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -7358,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W92">
         <v>0</v>
@@ -7378,16 +7372,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" t="s">
         <v>329</v>
       </c>
-      <c r="B93" t="s">
-        <v>330</v>
-      </c>
-      <c r="C93" t="s">
-        <v>331</v>
-      </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -7420,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W93">
         <v>0</v>
@@ -7440,16 +7434,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" t="s">
         <v>332</v>
       </c>
-      <c r="B94" t="s">
-        <v>333</v>
-      </c>
-      <c r="C94" t="s">
-        <v>334</v>
-      </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -7482,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -7502,16 +7496,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" t="s">
         <v>335</v>
       </c>
-      <c r="B95" t="s">
-        <v>336</v>
-      </c>
-      <c r="C95" t="s">
-        <v>337</v>
-      </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -7544,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -7564,16 +7558,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
         <v>338</v>
       </c>
-      <c r="B96" t="s">
-        <v>339</v>
-      </c>
-      <c r="C96" t="s">
-        <v>340</v>
-      </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -7606,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -7626,16 +7620,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" t="s">
         <v>341</v>
       </c>
-      <c r="B97" t="s">
-        <v>342</v>
-      </c>
-      <c r="C97" t="s">
-        <v>343</v>
-      </c>
       <c r="F97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -7668,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7688,16 +7682,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" t="s">
+        <v>343</v>
+      </c>
+      <c r="C98" t="s">
         <v>344</v>
       </c>
-      <c r="B98" t="s">
-        <v>345</v>
-      </c>
-      <c r="C98" t="s">
-        <v>346</v>
-      </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -7730,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -7750,16 +7744,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" t="s">
         <v>347</v>
       </c>
-      <c r="B99" t="s">
-        <v>348</v>
-      </c>
-      <c r="C99" t="s">
-        <v>349</v>
-      </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -7792,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -7812,16 +7806,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>348</v>
+      </c>
+      <c r="B100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" t="s">
         <v>350</v>
       </c>
-      <c r="B100" t="s">
-        <v>351</v>
-      </c>
-      <c r="C100" t="s">
-        <v>352</v>
-      </c>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -7854,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -7874,16 +7868,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" t="s">
         <v>353</v>
       </c>
-      <c r="B101" t="s">
-        <v>354</v>
-      </c>
-      <c r="C101" t="s">
-        <v>355</v>
-      </c>
       <c r="F101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -7916,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -7936,16 +7930,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" t="s">
+        <v>355</v>
+      </c>
+      <c r="C102" t="s">
         <v>356</v>
       </c>
-      <c r="B102" t="s">
-        <v>357</v>
-      </c>
-      <c r="C102" t="s">
-        <v>358</v>
-      </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -7978,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -7998,16 +7992,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" t="s">
         <v>359</v>
       </c>
-      <c r="B103" t="s">
-        <v>360</v>
-      </c>
-      <c r="C103" t="s">
-        <v>361</v>
-      </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -8040,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8060,16 +8054,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" t="s">
+        <v>361</v>
+      </c>
+      <c r="C104" t="s">
         <v>362</v>
       </c>
-      <c r="B104" t="s">
-        <v>363</v>
-      </c>
-      <c r="C104" t="s">
-        <v>364</v>
-      </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -8102,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W104">
         <v>0</v>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920898D3-D5C2-4313-AB36-2DE1B878AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769296EF-6ACC-44E8-8EE9-69EBB5C4E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="365">
   <si>
     <t>title</t>
   </si>
@@ -346,788 +346,782 @@
     <t>chb</t>
   </si>
   <si>
-    <t>dec/DataSet/Data/TRIM_1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/TRIM_2</t>
+    <t>Rînd. 010 col.1</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>table number</t>
+  </si>
+  <si>
+    <t>CAP1_R010_C1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R010_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R011_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 011 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R011_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R012_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 012 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R012_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R013_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 013 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R013_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R014_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 014 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R014_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R015_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 015 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R015_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R016_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 016 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R016_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R017_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 017 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R017_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R018_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 018 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R018_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R019_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 019 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R019_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R020_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 020 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R020_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R021_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 021 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R021_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R022_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 022 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R022_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R023_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 023 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R023_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R024_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 024 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R024_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R025_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 025 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R025_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R026_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 026 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R026_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R027_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 027 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R027_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R028_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 028 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R028_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R029_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 029 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R029_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R030_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 030 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R030_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R040_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 040 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R040_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R050_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 050 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R050_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R051_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 051 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R051_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R052_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 052 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R052_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R053_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 053 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R053_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R054_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 054 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R054_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R055_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 055 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R055_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R056_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 056 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R056_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R057_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 057 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R057_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R058_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 058 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R058_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R059_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 059 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R059_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R060_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 060 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R060_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R061_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 061 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R061_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R062_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 062 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R062_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R063_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 063 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R063_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R069_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 069 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R069_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R070_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 070 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R070_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R071_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 071 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R071_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R072_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 072 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R072_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R073_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 073 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R073_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R074_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 074 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R074_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R075_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 075 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R075_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R076_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 076 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R076_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R077_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 077 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R077_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R078_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 078 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R078_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R079_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 079 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R079_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R080_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 080 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R080_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R081_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 081 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R081_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R082_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 082 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R082_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R089_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 089 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R089_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R090_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 090 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R090_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R091_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 091 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R091_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R092_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 092 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R092_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R100_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 100 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R100_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R110_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 110 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R110_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R120_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 120 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R120_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R130_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 130 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R130_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R131_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 131 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R131_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R140_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 140 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R140_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R141_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 141 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R141_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R142_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 142 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R142_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R150_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 150 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R150_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R160_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 160 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R160_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R170_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 170 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R170_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R171_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 171 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R171_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R172_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 172 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R172_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R173_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 173 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R173_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R174_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 174 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R174_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R180_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 180 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R180_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R190_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 190 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R190_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R200_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 200 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R200_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R210_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 210 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R210_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R220_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 220 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R220_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R221_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 221 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R221_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R222_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 222 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R222_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R223_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 223 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R223_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R224_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 224 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R224_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R225_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 225 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R225_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R230_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 230 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R230_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R310_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 310 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R310_C1</t>
+  </si>
+  <si>
+    <t>CAP1_R320_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 320 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R320_C1</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_38 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_37 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_2 c ON c.tid = t.tid ORDER BY c.code;</t>
+  </si>
+  <si>
+    <t>SELECT ddf_code, CONCAT(ddf_code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_21 c ON c.tid = t.tid order by ddf_code;</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Header/flag1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Header/flag2</t>
   </si>
   <si>
     <t>TRIM_1</t>
   </si>
   <si>
     <t>TRIM_2</t>
-  </si>
-  <si>
-    <t>Rînd. 010 col.1</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>table number</t>
-  </si>
-  <si>
-    <t>CAP1_R010_C1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R010_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R011_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 011 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R011_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R012_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 012 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R012_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R013_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 013 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R013_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R014_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 014 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R014_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R015_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 015 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R015_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R016_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 016 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R016_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R017_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 017 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R017_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R018_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 018 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R018_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R019_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 019 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R019_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R020_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 020 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R020_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R021_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 021 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R021_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R022_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 022 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R022_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R023_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 023 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R023_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R024_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 024 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R024_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R025_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 025 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R025_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R026_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 026 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R026_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R027_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 027 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R027_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R028_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 028 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R028_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R029_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 029 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R029_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R030_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 030 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R030_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R040_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 040 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R040_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R050_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 050 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R050_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R051_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 051 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R051_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R052_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 052 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R052_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R053_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 053 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R053_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R054_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 054 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R054_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R055_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 055 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R055_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R056_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 056 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R056_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R057_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 057 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R057_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R058_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 058 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R058_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R059_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 059 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R059_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R060_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 060 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R060_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R061_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 061 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R061_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R062_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 062 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R062_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R063_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 063 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R063_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R069_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 069 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R069_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R070_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 070 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R070_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R071_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 071 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R071_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R072_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 072 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R072_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R073_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 073 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R073_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R074_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 074 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R074_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R075_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 075 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R075_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R076_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 076 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R076_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R077_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 077 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R077_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R078_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 078 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R078_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R079_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 079 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R079_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R080_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 080 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R080_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R081_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 081 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R081_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R082_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 082 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R082_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R089_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 089 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R089_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R090_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 090 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R090_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R091_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 091 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R091_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R092_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 092 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R092_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R100_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 100 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R100_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R110_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 110 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R110_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R120_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 120 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R120_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R130_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 130 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R130_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R131_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 131 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R131_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R140_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 140 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R140_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R141_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 141 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R141_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R142_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 142 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R142_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R150_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 150 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R150_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R160_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 160 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R160_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R170_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 170 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R170_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R171_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 171 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R171_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R172_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 172 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R172_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R173_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 173 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R173_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R174_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 174 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R174_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R180_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 180 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R180_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R190_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 190 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R190_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R200_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 200 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R200_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R210_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 210 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R210_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R220_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 220 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R220_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R221_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 221 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R221_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R222_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 222 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R222_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R223_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 223 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R223_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R224_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 224 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R224_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R225_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 225 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R225_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R230_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 230 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R230_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R300_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 300 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R300_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R310_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 310 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R310_C1</t>
-  </si>
-  <si>
-    <t>CAP1_R320_C1</t>
-  </si>
-  <si>
-    <t>Rînd. 320 col.1</t>
-  </si>
-  <si>
-    <t>dec/DataSet/Data/CAP1_R320_C1</t>
-  </si>
-  <si>
-    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_38 c ON c.tid = t.tid ORDER BY c.code;</t>
-  </si>
-  <si>
-    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_37 c ON c.tid = t.tid ORDER BY c.code;</t>
-  </si>
-  <si>
-    <t>SELECT code, CONCAT(code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_2 c ON c.tid = t.tid ORDER BY c.code;</t>
-  </si>
-  <si>
-    <t>SELECT ddf_code, CONCAT(ddf_code, ' - ', name)   FROM taxonomy_term_data t JOIN classifier_21 c ON c.tid = t.tid order by ddf_code;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1168,6 +1162,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1215,6 +1215,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE104"/>
+  <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1814,7 +1817,7 @@
         <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>31</v>
@@ -1888,7 +1891,7 @@
         <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>31</v>
@@ -2031,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>31</v>
@@ -2099,7 +2102,7 @@
         <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>31</v>
@@ -2727,7 +2730,7 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F18" t="s">
@@ -2841,15 +2844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>110</v>
+    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
-        <v>108</v>
+      <c r="C20" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -2906,15 +2909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>111</v>
+    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="B21" t="s">
         <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
@@ -2970,16 +2973,16 @@
     </row>
     <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3012,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3032,16 +3035,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -3074,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3094,16 +3097,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -3136,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3156,16 +3159,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -3198,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3218,16 +3221,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3260,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3280,16 +3283,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3322,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3342,16 +3345,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -3384,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3404,16 +3407,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3446,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3466,16 +3469,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3508,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3528,16 +3531,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3590,16 +3593,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3632,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3652,16 +3655,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3694,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3714,16 +3717,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3756,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3776,16 +3779,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3818,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3838,16 +3841,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3880,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3900,16 +3903,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3942,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3962,16 +3965,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4004,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4024,16 +4027,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -4066,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -4086,16 +4089,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4148,16 +4151,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -4190,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4210,16 +4213,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4252,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4272,16 +4275,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4314,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4334,16 +4337,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4376,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4396,16 +4399,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4438,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4458,16 +4461,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4520,16 +4523,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4562,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4582,16 +4585,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4624,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4644,16 +4647,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -4686,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4706,16 +4709,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4748,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -4768,16 +4771,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4810,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4830,16 +4833,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -4872,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4892,16 +4895,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -4934,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -4954,16 +4957,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -4996,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -5016,16 +5019,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5078,16 +5081,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5120,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5140,16 +5143,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5182,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -5202,16 +5205,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5244,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5264,16 +5267,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5306,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5326,16 +5329,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
         <v>32</v>
@@ -5368,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5388,16 +5391,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5430,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5450,16 +5453,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -5492,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -5512,16 +5515,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -5554,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -5574,16 +5577,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -5616,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -5636,16 +5639,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -5678,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -5698,16 +5701,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G66" t="s">
         <v>32</v>
@@ -5740,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -5760,16 +5763,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -5802,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -5822,16 +5825,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -5864,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -5884,16 +5887,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -5926,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -5946,16 +5949,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -5988,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -6008,16 +6011,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -6050,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -6070,16 +6073,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6112,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -6132,16 +6135,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -6174,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -6194,16 +6197,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -6236,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6256,16 +6259,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6318,16 +6321,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -6360,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -6380,16 +6383,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -6422,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -6442,16 +6445,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -6484,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -6504,16 +6507,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C79" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -6546,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -6566,16 +6569,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C80" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -6608,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -6628,16 +6631,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -6690,16 +6693,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -6732,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -6752,16 +6755,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C83" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -6794,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -6814,16 +6817,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -6856,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -6876,16 +6879,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -6918,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -6938,16 +6941,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -6980,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7000,16 +7003,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -7042,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -7062,16 +7065,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -7104,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -7124,16 +7127,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -7166,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7186,16 +7189,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -7228,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -7248,16 +7251,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -7290,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -7310,16 +7313,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -7352,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W92">
         <v>0</v>
@@ -7372,16 +7375,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -7414,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W93">
         <v>0</v>
@@ -7434,16 +7437,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -7476,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -7496,16 +7499,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -7538,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -7558,16 +7561,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -7600,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -7620,16 +7623,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C97" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -7662,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7682,16 +7685,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -7724,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -7744,16 +7747,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -7786,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -7806,16 +7809,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -7848,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -7868,16 +7871,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B101" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -7910,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -7930,16 +7933,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -7972,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -7992,16 +7995,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C103" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -8034,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8049,68 +8052,6 @@
         <v>1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>360</v>
-      </c>
-      <c r="B104" t="s">
-        <v>361</v>
-      </c>
-      <c r="C104" t="s">
-        <v>362</v>
-      </c>
-      <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>14</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="V104" t="s">
-        <v>114</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>100</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
-      <c r="AB104">
         <v>0</v>
       </c>
     </row>

--- a/5-con_22/5_CON_22.xlsx
+++ b/5-con_22/5_CON_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\18\5-con_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769296EF-6ACC-44E8-8EE9-69EBB5C4E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11FFD4-303E-483B-9FB6-0961CDDBCB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -1115,6 +1115,15 @@
   </si>
   <si>
     <t>TRIM_2</t>
+  </si>
+  <si>
+    <t>CAP1_R300_C1</t>
+  </si>
+  <si>
+    <t>Rînd. 300 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP1_R300_C1</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE103"/>
+  <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7933,13 +7942,13 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C102" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="F102" t="s">
         <v>360</v>
@@ -7995,13 +8004,13 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B103" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F103" t="s">
         <v>360</v>
@@ -8052,6 +8061,68 @@
         <v>1</v>
       </c>
       <c r="AB103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" t="s">
+        <v>355</v>
+      </c>
+      <c r="F104" t="s">
+        <v>360</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>14</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>110</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>100</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AB104">
         <v>0</v>
       </c>
     </row>
